--- a/data_insertion/parking history detials.xlsx
+++ b/data_insertion/parking history detials.xlsx
@@ -434,7 +434,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,8 +462,8 @@
         <v>1</v>
       </c>
       <c r="F1" t="str">
-        <f>CONCATENATE("insert into [dbo].[parking history] values(",A1,",",B1,",'",C1,"','",D1,"',",E1,")")</f>
-        <v>insert into [dbo].[parking history] values(1,2,'2018-04-28 12:00:00','2018-04-28 02:00:00',1)</v>
+        <f>CONCATENATE("insert into [dbo].[parking history] values(",B1,",",E1,",'",D1,"','",C1,"')")</f>
+        <v>insert into [dbo].[parking history] values(2,1,'2018-04-28 02:00:00','2018-04-28 12:00:00')</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -483,8 +483,8 @@
         <v>20</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F10" si="0">CONCATENATE("insert into [dbo].[parking history] values(",A2,",",B2,",'",C2,"','",D2,"',",E2,")")</f>
-        <v>insert into [dbo].[parking history] values(2,6,'2018-04-29 01:00:00','2018-04-29 04:00:00',20)</v>
+        <f t="shared" ref="F2:F10" si="0">CONCATENATE("insert into [dbo].[parking history] values(",B2,",",E2,",'",D2,"','",C2,"')")</f>
+        <v>insert into [dbo].[parking history] values(6,20,'2018-04-29 04:00:00','2018-04-29 01:00:00')</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -505,7 +505,7 @@
       </c>
       <c r="F3" t="str">
         <f t="shared" si="0"/>
-        <v>insert into [dbo].[parking history] values(3,1,'2018-05-08 10:30:00','2018-05-08 12:30:00',65)</v>
+        <v>insert into [dbo].[parking history] values(1,65,'2018-05-08 12:30:00','2018-05-08 10:30:00')</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -526,7 +526,7 @@
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into [dbo].[parking history] values(4,13,'2018-05-11 11:00:00','2018-05-11 12:00:00',34)</v>
+        <v>insert into [dbo].[parking history] values(13,34,'2018-05-11 12:00:00','2018-05-11 11:00:00')</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -547,7 +547,7 @@
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into [dbo].[parking history] values(5,4,'2018-05-15 03:30:00','2018-05-15 07:30:00',26)</v>
+        <v>insert into [dbo].[parking history] values(4,26,'2018-05-15 07:30:00','2018-05-15 03:30:00')</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -568,7 +568,7 @@
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into [dbo].[parking history] values(6,7,'2018-05-17 04:45:00','2018-05-17 05:45:00',124)</v>
+        <v>insert into [dbo].[parking history] values(7,124,'2018-05-17 05:45:00','2018-05-17 04:45:00')</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -589,7 +589,7 @@
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into [dbo].[parking history] values(7,2,'2018-05-19 02:30:00','2018-05-19 03:30:00',165)</v>
+        <v>insert into [dbo].[parking history] values(2,165,'2018-05-19 03:30:00','2018-05-19 02:30:00')</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -610,7 +610,7 @@
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>insert into [dbo].[parking history] values(8,9,'2018-05-20 01:10:00','2018-05-20 02:10:00',120)</v>
+        <v>insert into [dbo].[parking history] values(9,120,'2018-05-20 02:10:00','2018-05-20 01:10:00')</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -631,7 +631,7 @@
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>insert into [dbo].[parking history] values(9,4,'2018-05-21 03:00:00','2018-05-21 04:00:00',65)</v>
+        <v>insert into [dbo].[parking history] values(4,65,'2018-05-21 04:00:00','2018-05-21 03:00:00')</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -652,7 +652,7 @@
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into [dbo].[parking history] values(10,17,'2018-05-24 05:00:00','2018-05-24 08:00:00',78)</v>
+        <v>insert into [dbo].[parking history] values(17,78,'2018-05-24 08:00:00','2018-05-24 05:00:00')</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
